--- a/outputs-HGR-r202/g__CAG-345.xlsx
+++ b/outputs-HGR-r202/g__CAG-345.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,25 +442,20 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>1-s__</t>
+          <t>1-s__CAG-345 sp000433315</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2-s__CAG-345 sp000433315</t>
+          <t>max</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>max</t>
+          <t>prediction</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>prediction</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>rejection-f</t>
         </is>
@@ -469,24 +464,21 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT40025.fa</t>
+          <t>even_MAG-GUT42613.fa</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.05175469115994025</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9482453088400598</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.9482453088400598</v>
+        <v>1</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>s__CAG-345 sp000433315</t>
+        </is>
       </c>
       <c r="E2" t="inlineStr">
-        <is>
-          <t>s__CAG-345 sp000433315</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
         <is>
           <t>s__CAG-345 sp000433315</t>
         </is>
@@ -495,128 +487,21 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT42613.fa</t>
+          <t>even_MAG-GUT48445.fa</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.05753496908767641</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9424650309123236</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.9424650309123236</v>
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>s__CAG-345 sp000433315</t>
+        </is>
       </c>
       <c r="E3" t="inlineStr">
-        <is>
-          <t>s__CAG-345 sp000433315</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>s__CAG-345 sp000433315</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT48445.fa</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.05811710861998476</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.9418828913800152</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.9418828913800152</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>s__CAG-345 sp000433315</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>s__CAG-345 sp000433315</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT65576.fa</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.05175469115994025</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.9482453088400598</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.9482453088400598</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>s__CAG-345 sp000433315</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>s__CAG-345 sp000433315</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT66330.fa</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.04378236815106262</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.9562176318489374</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.9562176318489374</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>s__CAG-345 sp000433315</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>s__CAG-345 sp000433315</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT70620.fa</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.05274952740665317</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.9472504725933468</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.9472504725933468</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>s__CAG-345 sp000433315</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
         <is>
           <t>s__CAG-345 sp000433315</t>
         </is>

--- a/outputs-HGR-r202/g__CAG-345.xlsx
+++ b/outputs-HGR-r202/g__CAG-345.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,6 +455,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -473,6 +478,11 @@
           <t>s__CAG-345 sp000433315</t>
         </is>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>s__CAG-345 sp000433315</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -491,6 +501,11 @@
           <t>s__CAG-345 sp000433315</t>
         </is>
       </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>s__CAG-345 sp000433315</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -509,6 +524,11 @@
           <t>s__CAG-345 sp000433315</t>
         </is>
       </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>s__CAG-345 sp000433315</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -527,6 +547,11 @@
           <t>s__CAG-345 sp000433315</t>
         </is>
       </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>s__CAG-345 sp000433315</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -545,6 +570,11 @@
           <t>s__CAG-345 sp000433315</t>
         </is>
       </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>s__CAG-345 sp000433315</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -563,6 +593,11 @@
           <t>s__CAG-345 sp000433315</t>
         </is>
       </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>s__CAG-345 sp000433315</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -581,6 +616,11 @@
           <t>s__CAG-345 sp000433315</t>
         </is>
       </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>s__CAG-345 sp000433315</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -595,6 +635,11 @@
         <v>1</v>
       </c>
       <c r="D9" t="inlineStr">
+        <is>
+          <t>s__CAG-345 sp000433315</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>s__CAG-345 sp000433315</t>
         </is>

--- a/outputs-HGR-r202/g__CAG-345.xlsx
+++ b/outputs-HGR-r202/g__CAG-345.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,15 +447,10 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>max</t>
+          <t>prediction</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>prediction</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>rejection-f</t>
         </is>
@@ -468,17 +463,14 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
+        <v>1.693434838499416</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>s__CAG-345 sp000433315</t>
+        </is>
       </c>
       <c r="D2" t="inlineStr">
-        <is>
-          <t>s__CAG-345 sp000433315</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
         <is>
           <t>s__CAG-345 sp000433315</t>
         </is>
@@ -487,21 +479,18 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT40033.fa</t>
+          <t>even_MAG-GUT42613.fa</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
+        <v>1.463256242741473</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>s__CAG-345 sp000433315</t>
+        </is>
       </c>
       <c r="D3" t="inlineStr">
-        <is>
-          <t>s__CAG-345 sp000433315</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
         <is>
           <t>s__CAG-345 sp000433315</t>
         </is>
@@ -510,21 +499,18 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT42613.fa</t>
+          <t>even_MAG-GUT48445.fa</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
+        <v>1.748763174246024</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>s__CAG-345 sp000433315</t>
+        </is>
       </c>
       <c r="D4" t="inlineStr">
-        <is>
-          <t>s__CAG-345 sp000433315</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
         <is>
           <t>s__CAG-345 sp000433315</t>
         </is>
@@ -533,21 +519,18 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT48445.fa</t>
+          <t>even_MAG-GUT65576.fa</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
+        <v>1.693434838499416</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>s__CAG-345 sp000433315</t>
+        </is>
       </c>
       <c r="D5" t="inlineStr">
-        <is>
-          <t>s__CAG-345 sp000433315</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
         <is>
           <t>s__CAG-345 sp000433315</t>
         </is>
@@ -556,21 +539,18 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT65576.fa</t>
+          <t>even_MAG-GUT66330.fa</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
+        <v>1.68482165972379</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>s__CAG-345 sp000433315</t>
+        </is>
       </c>
       <c r="D6" t="inlineStr">
-        <is>
-          <t>s__CAG-345 sp000433315</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
         <is>
           <t>s__CAG-345 sp000433315</t>
         </is>
@@ -579,67 +559,18 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT65588.fa</t>
+          <t>even_MAG-GUT70620.fa</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
+        <v>1.314242988281904</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>s__CAG-345 sp000433315</t>
+        </is>
       </c>
       <c r="D7" t="inlineStr">
-        <is>
-          <t>s__CAG-345 sp000433315</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>s__CAG-345 sp000433315</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT66330.fa</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>s__CAG-345 sp000433315</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>s__CAG-345 sp000433315</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT70620.fa</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>s__CAG-345 sp000433315</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
         <is>
           <t>s__CAG-345 sp000433315</t>
         </is>
